--- a/biology/Zoologie/Gesomyrmex_hoernesi/Gesomyrmex_hoernesi.xlsx
+++ b/biology/Zoologie/Gesomyrmex_hoernesi/Gesomyrmex_hoernesi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dimorphomyrmex mayri, Dimorphomyrmex theryi, Gesomyrmex annectens, Gesomyrmex curiosus, Gesomyrmex incertus
 Gesomyrmex hoernesi est une espèce fossile de fourmis de la sous-famille des Formicinae. 
@@ -512,95 +524,280 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Gesomyrmex hoernesi est décrite en 1868 par l'entomologiste autrichien Gustav Mayr (1830-1908)[1],[2]. 
-Synonymes
-Selon Paleobiology Database en 2023, le nombre de synonymes référencés est de cinq[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Gesomyrmex hoernesi est décrite en 1868 par l'entomologiste autrichien Gustav Mayr (1830-1908),. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database en 2023, le nombre de synonymes référencés est de cinq :
 †Dimorphomyrmex mayri Wheeler, 1915
 †Dimorphomyrmex theryi Emery, 1905
 †Gesomyrmex annectens Wheeler, 1915
 †Gesomyrmex curiosus Dlussky et al., 2009
-†Gesomyrmex incertus Dlussky et al., 2015
-Fossiles
-Selon Paleobiology Database en 2023, cette espèce a vingt-et-une collections de fossiles référencées :
+†Gesomyrmex incertus Dlussky et al., 2015</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Paleobiology Database en 2023, cette espèce a vingt-et-une collections de fossiles référencées :
 Éocène, une collection du Danemark, trois collections d'Allemagne, trois de Pologne, treize de Russie et une d'Ukraine.
-En 1937 le paléontologue français Nicolas Théobald (1903-1981), propose d'ajouter des fossiles de l'Oligocène d'Allemagne, de Kleinkembs dans la région du Bade-Wurtemberg, à cette espèce et la redécrit[3].
-Étymologie
-L'épithète spécifique hoernesi rend hommage au paléontologue autrichien Rudolf Hoernes (1850-1912).
+En 1937 le paléontologue français Nicolas Théobald (1903-1981), propose d'ajouter des fossiles de l'Oligocène d'Allemagne, de Kleinkembs dans la région du Bade-Wurtemberg, à cette espèce et la redécrit.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Gesomyrmex_hoernesi</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique hoernesi rend hommage au paléontologue autrichien Rudolf Hoernes (1850-1912).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald de 1937[3],[note 1]. 
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald de 1937,[note 1]. 
 « ♂ R759, 451 Coll. Mieg. Mus. Bâle Kleinkembs.
 ♀ R479, 225, 227 (pl. XIV, fig 26 ; pl. XIV, fig27)
 Insecte brun noirâtre. Tête transversale ; grands yeux saillants ; bord postérieur arrondi ; face courte ; mandibules petites ; antennes insérées à l'avant de la tête, de part et d'autre du clypeus, qui est petit et triangulaire ; antennes (visibles sur R759) à scape court, moins long que la tête, funicule court et filiforme. Thorax fort, régulièrement bombé sur le dos ; pronotum court, visible sur le dos ; mésonotum bien développé ; scuttelum trapézoïdal, arrondi à l'arrière. pétiole formé d'un segment, légèrement renflé. Abdomen ovale, cinq segments visibles sur R759, ainsi que les organes génitaux sous forme de pointes courtes, organes ♂. Sur R479, on ne voit que quatre segments, l'abdomen a une forme plus trapue et les organes génitaux manquent, ♀. Pattes longues et grêles. Ailes manquent.
 ♀ R31 + 330 (pl. XIV, fig 27 ; pl. XIV, fig27)
-Corps brun-noirâtre. L. tot. = 6,75 mm. Abdomen ovale, à quatre segments bien visibles. Les antennes et les pattes sont assez bien conservées. Autres exemplaires R89, 33 (?) 343 (pl. XIV, fig 28), 148. »[3].
-Dimensions
-La longueur totale de l'insecte est de 9-9,5 mm ou 6,75 mm[3].
-Affinités
-« Très voisin de Gesomyrmex hörnesi de l'ambre de la Baltique, mais l'abdomen est moins allongé. Se distingue de G. miegi par son abdomen plus allongé et de Gesomyrmex expectans par sa taille notamment moindre. »[3].
+Corps brun-noirâtre. L. tot. = 6,75 mm. Abdomen ovale, à quatre segments bien visibles. Les antennes et les pattes sont assez bien conservées. Autres exemplaires R89, 33 (?) 343 (pl. XIV, fig 28), 148. ».
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Gesomyrmex_hoernesi</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale de l'insecte est de 9-9,5 mm ou 6,75 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« Très voisin de Gesomyrmex hörnesi de l'ambre de la Baltique, mais l'abdomen est moins allongé. Se distingue de G. miegi par son abdomen plus allongé et de Gesomyrmex expectans par sa taille notamment moindre. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Gesomyrmex_hoernesi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Gesomyrmix se rencontre actuellement dans les régions indomalaises[4].
-Les espèces vivantes sont arboricoles et construisent généralement des nids dans les brindilles des arbres[5].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Gesomyrmix se rencontre actuellement dans les régions indomalaises.
+Les espèces vivantes sont arboricoles et construisent généralement des nids dans les brindilles des arbres.
 </t>
         </is>
       </c>
